--- a/Data/EC/NIT-9015775550.xlsx
+++ b/Data/EC/NIT-9015775550.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A249ACD-3B38-4043-9E43-8A12EBC1A449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55A54F87-C872-49AD-82A4-62602E16CC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{885C6905-A93C-4169-9BAF-DF9254C49FF7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{36D1E85F-9D4E-4F3A-A434-CBABDF0D27CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -80,6 +80,24 @@
     <t>JOSE DAVID ALMEIDA LEONES</t>
   </si>
   <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
     <t>2305</t>
   </si>
   <si>
@@ -87,24 +105,6 @@
   </si>
   <si>
     <t>RUBEN DARIO GOMEZ OROZCO</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -518,7 +518,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8AD3C03-7DC2-1C76-DB22-F050B0B3F6BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0533FF8C-B5C2-605F-2420-ED5DC0B234ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -869,7 +869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176D721F-E789-4042-B7AC-B488E11F3B3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACAD5BAA-87AA-42CC-BAAE-3AA754F6A897}">
   <dimension ref="B2:J36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1070,7 +1070,7 @@
         <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>46400</v>
+        <v>112000</v>
       </c>
       <c r="G17" s="18">
         <v>1160000</v>
@@ -1084,19 +1084,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F18" s="18">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="G18" s="18">
-        <v>2000000</v>
+        <v>1160000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1107,19 +1107,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="F19" s="18">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="G19" s="18">
-        <v>2000000</v>
+        <v>1160000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1139,7 +1139,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="18">
-        <v>46400</v>
+        <v>120000</v>
       </c>
       <c r="G20" s="18">
         <v>1160000</v>
@@ -1176,19 +1176,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
-        <v>80000</v>
+        <v>46400</v>
       </c>
       <c r="G22" s="18">
-        <v>2000000</v>
+        <v>1160000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1199,19 +1199,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
-        <v>80000</v>
+        <v>46400</v>
       </c>
       <c r="G23" s="18">
-        <v>2000000</v>
+        <v>1160000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1222,19 +1222,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F24" s="18">
-        <v>120000</v>
+        <v>74667</v>
       </c>
       <c r="G24" s="18">
-        <v>1160000</v>
+        <v>2000000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1245,13 +1245,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>80000</v>
@@ -1268,19 +1268,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F26" s="18">
-        <v>120000</v>
+        <v>80000</v>
       </c>
       <c r="G26" s="18">
-        <v>1160000</v>
+        <v>2000000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1291,19 +1291,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F27" s="18">
-        <v>120000</v>
+        <v>80000</v>
       </c>
       <c r="G27" s="18">
-        <v>1160000</v>
+        <v>2000000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1314,13 +1314,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F28" s="18">
         <v>80000</v>
@@ -1337,19 +1337,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F29" s="18">
-        <v>112000</v>
+        <v>80000</v>
       </c>
       <c r="G29" s="18">
-        <v>1160000</v>
+        <v>2000000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1360,16 +1360,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F30" s="24">
-        <v>74667</v>
+        <v>80000</v>
       </c>
       <c r="G30" s="24">
         <v>2000000</v>

--- a/Data/EC/NIT-9015775550.xlsx
+++ b/Data/EC/NIT-9015775550.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55A54F87-C872-49AD-82A4-62602E16CC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBD567BA-13D7-4AC1-B620-61511F199CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{36D1E85F-9D4E-4F3A-A434-CBABDF0D27CC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6B0DC525-858A-45CA-A56C-C50E7CD4FCE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -80,31 +80,31 @@
     <t>JOSE DAVID ALMEIDA LEONES</t>
   </si>
   <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>1143351433</t>
+  </si>
+  <si>
+    <t>RUBEN DARIO GOMEZ OROZCO</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
     <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>1143351433</t>
-  </si>
-  <si>
-    <t>RUBEN DARIO GOMEZ OROZCO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -203,7 +203,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -216,9 +218,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -418,23 +418,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -462,10 +462,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -518,7 +518,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0533FF8C-B5C2-605F-2420-ED5DC0B234ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{077204B3-2435-48B4-42AA-15A2042E8C5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -869,7 +869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACAD5BAA-87AA-42CC-BAAE-3AA754F6A897}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C64997-70EF-4DDF-A30A-DB84EAAFD0F9}">
   <dimension ref="B2:J36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1050,7 +1050,7 @@
         <v>160000</v>
       </c>
       <c r="G16" s="18">
-        <v>689455</v>
+        <v>2000000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1070,10 +1070,10 @@
         <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>112000</v>
+        <v>46400</v>
       </c>
       <c r="G17" s="18">
-        <v>1160000</v>
+        <v>3000000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1084,19 +1084,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
-        <v>120000</v>
+        <v>80000</v>
       </c>
       <c r="G18" s="18">
-        <v>1160000</v>
+        <v>2000000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1113,13 +1113,13 @@
         <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F19" s="18">
-        <v>120000</v>
+        <v>46400</v>
       </c>
       <c r="G19" s="18">
-        <v>1160000</v>
+        <v>3000000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1130,19 +1130,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="18">
-        <v>120000</v>
+        <v>80000</v>
       </c>
       <c r="G20" s="18">
-        <v>1160000</v>
+        <v>2000000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1165,7 +1165,7 @@
         <v>46400</v>
       </c>
       <c r="G21" s="18">
-        <v>1160000</v>
+        <v>3000000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1176,19 +1176,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F22" s="18">
-        <v>46400</v>
+        <v>80000</v>
       </c>
       <c r="G22" s="18">
-        <v>1160000</v>
+        <v>2000000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1205,13 +1205,13 @@
         <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F23" s="18">
-        <v>46400</v>
+        <v>120000</v>
       </c>
       <c r="G23" s="18">
-        <v>1160000</v>
+        <v>3000000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1222,16 +1222,16 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>74667</v>
+        <v>80000</v>
       </c>
       <c r="G24" s="18">
         <v>2000000</v>
@@ -1245,19 +1245,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="G25" s="18">
-        <v>2000000</v>
+        <v>3000000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1268,13 +1268,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F26" s="18">
         <v>80000</v>
@@ -1291,19 +1291,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="F27" s="18">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="G27" s="18">
-        <v>2000000</v>
+        <v>3000000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1314,13 +1314,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>21</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="F28" s="18">
         <v>80000</v>
@@ -1337,19 +1337,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="F29" s="18">
-        <v>80000</v>
+        <v>112000</v>
       </c>
       <c r="G29" s="18">
-        <v>2000000</v>
+        <v>3000000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1360,16 +1360,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D30" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="22" t="s">
-        <v>20</v>
-      </c>
       <c r="F30" s="24">
-        <v>80000</v>
+        <v>74667</v>
       </c>
       <c r="G30" s="24">
         <v>2000000</v>

--- a/Data/EC/NIT-9015775550.xlsx
+++ b/Data/EC/NIT-9015775550.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBD567BA-13D7-4AC1-B620-61511F199CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD306CCA-6A71-4925-BF32-18799CA575C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6B0DC525-858A-45CA-A56C-C50E7CD4FCE7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C0D4FFD8-CB98-4E52-81E5-DDF81C6D6D84}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -203,9 +203,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -218,7 +216,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -412,29 +412,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -453,19 +453,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -518,7 +524,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{077204B3-2435-48B4-42AA-15A2042E8C5C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7EAA6B1-BFDD-B461-550C-D2D8FF5BEDC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -869,7 +875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C64997-70EF-4DDF-A30A-DB84EAAFD0F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB8FA41-CCD3-4ACF-BFAD-18CFF74EBDA8}">
   <dimension ref="B2:J36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -892,49 +898,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -942,7 +948,7 @@
         <v>24</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -958,7 +964,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9015775550</v>
       </c>
@@ -974,7 +980,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>1325867</v>
       </c>
@@ -1043,18 +1049,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>160000</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>2000000</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1066,18 +1072,18 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>46400</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>3000000</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1089,18 +1095,18 @@
       <c r="D18" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>80000</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>2000000</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1112,18 +1118,18 @@
       <c r="D19" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>46400</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>3000000</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1135,18 +1141,18 @@
       <c r="D20" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>80000</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>2000000</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1158,18 +1164,18 @@
       <c r="D21" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>46400</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>3000000</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1181,18 +1187,18 @@
       <c r="D22" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>80000</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>2000000</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1204,18 +1210,18 @@
       <c r="D23" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>120000</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>3000000</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1227,18 +1233,18 @@
       <c r="D24" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>80000</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="19">
         <v>2000000</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1250,18 +1256,18 @@
       <c r="D25" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>120000</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="19">
         <v>3000000</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1273,18 +1279,18 @@
       <c r="D26" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>80000</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="19">
         <v>2000000</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1296,18 +1302,18 @@
       <c r="D27" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="19">
         <v>120000</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="19">
         <v>3000000</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1319,18 +1325,18 @@
       <c r="D28" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>80000</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="19">
         <v>2000000</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1342,47 +1348,47 @@
       <c r="D29" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="19">
         <v>112000</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="19">
         <v>3000000</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="22" t="s">
+      <c r="B30" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F30" s="26">
         <v>74667</v>
       </c>
-      <c r="G30" s="24">
+      <c r="G30" s="26">
         <v>2000000</v>
       </c>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="26"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="28"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="32"/>
+      <c r="C35" s="34"/>
       <c r="H35" s="1" t="s">
         <v>32</v>
       </c>
@@ -1390,10 +1396,10 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="32"/>
+      <c r="C36" s="34"/>
       <c r="H36" s="1" t="s">
         <v>33</v>
       </c>
